--- a/ArcLength/model.xlsx
+++ b/ArcLength/model.xlsx
@@ -128,9 +128,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -435,12 +438,13 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.25" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -461,8 +465,8 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2">
-        <f>-0.04*A2^2+0.4*A2</f>
+      <c r="B2" s="2">
+        <f>1*SIN(A2*PI()/10)</f>
         <v>0</v>
       </c>
     </row>
@@ -470,43 +474,43 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B12" si="0">-0.04*A3^2+0.4*A3</f>
-        <v>0.36000000000000004</v>
+      <c r="B3" s="2">
+        <f t="shared" ref="B3:B11" si="0">1*SIN(A3*PI()/10)</f>
+        <v>0.3090169943749474</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <f t="shared" si="0"/>
-        <v>0.64</v>
+        <v>0.58778525229247314</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <f t="shared" si="0"/>
-        <v>0.84000000000000019</v>
+        <v>0.80901699437494745</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <f t="shared" si="0"/>
-        <v>0.96000000000000008</v>
+        <v>0.95105651629515353</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -515,44 +519,43 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <f t="shared" si="0"/>
-        <v>0.96000000000000041</v>
+        <v>0.95105651629515364</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <f t="shared" si="0"/>
-        <v>0.8400000000000003</v>
+        <v>0.80901699437494745</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <f t="shared" si="0"/>
-        <v>0.64000000000000012</v>
+        <v>0.58778525229247325</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <f t="shared" si="0"/>
-        <v>0.35999999999999988</v>
+        <v>0.30901699437494751</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
+      <c r="B12" s="2">
         <v>0</v>
       </c>
     </row>
@@ -750,7 +753,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -828,7 +831,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -855,7 +858,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>-1</v>
+        <v>-15000</v>
       </c>
     </row>
   </sheetData>

--- a/ArcLength/model.xlsx
+++ b/ArcLength/model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="node" sheetId="1" r:id="rId1"/>
@@ -437,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -711,7 +711,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -830,7 +830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>

--- a/ArcLength/model.xlsx
+++ b/ArcLength/model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="node" sheetId="1" r:id="rId1"/>
@@ -437,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -475,7 +475,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <f t="shared" ref="B3:B11" si="0">1*SIN(A3*PI()/10)</f>
+        <f>1*SIN(A3*PI()/10)</f>
         <v>0.3090169943749474</v>
       </c>
     </row>
@@ -484,7 +484,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B4:B11" si="0">1*SIN(A4*PI()/10)</f>
         <v>0.58778525229247314</v>
       </c>
     </row>
@@ -750,10 +750,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -799,10 +799,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -813,9 +813,31 @@
         <v>11</v>
       </c>
       <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>11</v>
+      </c>
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
         <v>0</v>
       </c>
     </row>
